--- a/encoding_data.xlsx
+++ b/encoding_data.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>images/phone/product_270975124.jpg</t>
+          <t>images_png/phone/270975124.png</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>images/phone/product_184059211.jpg</t>
+          <t>images_png/phone/184059211.png</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>images/phone/product_277007015.jpg</t>
+          <t>images_png/phone/277007015.png</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>images/phone/product_275510578.jpg</t>
+          <t>images_png/phone/275510578.png</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>images/camera/product_84866683.jpg</t>
+          <t>images_png/camera/84866683.png</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>images/phone/product_276515327.jpg</t>
+          <t>images_png/phone/276515327.png</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>images/phone/product_278098703.jpg</t>
+          <t>images_png/phone/278098703.png</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>images/camera/product_74500335.jpg</t>
+          <t>images_png/camera/74500335.png</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>images/phone/product_277777809.jpg</t>
+          <t>images_png/phone/277777809.png</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>images/phone/product_125182567.jpg</t>
+          <t>images_png/phone/125182567.png</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>images/speaker/product_35278834.jpg</t>
+          <t>images_png/speaker/35278834.png</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>images/phone/product_276109904.jpg</t>
+          <t>images_png/phone/276109904.png</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>images/tv/product_276178085.jpg</t>
+          <t>images_png/tv/276178085.png</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>images/phone/product_163914808.jpg</t>
+          <t>images_png/phone/163914808.png</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>images/speaker/product_127695415.jpg</t>
+          <t>images_png/speaker/127695415.png</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>images/camera/product_262792654.jpg</t>
+          <t>images_png/camera/262792654.png</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>images/phone/product_197214029.jpg</t>
+          <t>images_png/phone/197214029.png</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>images/speaker/product_117987260.jpg</t>
+          <t>images_png/speaker/117987260.png</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>images/phone/product_203661802.jpg</t>
+          <t>images_png/phone/203661802.png</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>images/phone/product_271966786.jpg</t>
+          <t>images_png/phone/271966786.png</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>images/phone/product_201067649.jpg</t>
+          <t>images_png/phone/201067649.png</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>images/tv/product_278006178.jpg</t>
+          <t>images_png/tv/278006178.png</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>images/phone/product_217706932.jpg</t>
+          <t>images_png/phone/217706932.png</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>images/phone/product_276614493.jpg</t>
+          <t>images_png/phone/276614493.png</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>images/camera/product_14585382.jpg</t>
+          <t>images_png/camera/14585382.png</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>images/camera/product_4688897.jpg</t>
+          <t>images_png/camera/4688897.png</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>images/phone/product_278219968.jpg</t>
+          <t>images_png/phone/278219968.png</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>images/phone/product_275716541.jpg</t>
+          <t>images_png/phone/275716541.png</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>images/phone/product_271967379.jpg</t>
+          <t>images_png/phone/271967379.png</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>images/camera/product_276376478.jpg</t>
+          <t>images_png/camera/276376478.png</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>images/phone/product_204237269.jpg</t>
+          <t>images_png/phone/204237269.png</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>images/speaker/product_66758390.jpg</t>
+          <t>images_png/speaker/66758390.png</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>images/laptop/product_189371737.jpg</t>
+          <t>images_png/laptop/189371737.png</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>images/phone/product_276110349.jpg</t>
+          <t>images_png/phone/276110349.png</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>images/camera/product_276857147.jpg</t>
+          <t>images_png/camera/276857147.png</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>images/phone/product_276110023.jpg</t>
+          <t>images_png/phone/276110023.png</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>images/camera/product_47868431.jpg</t>
+          <t>images_png/camera/47868431.png</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>images/speaker/product_188565088.jpg</t>
+          <t>images_png/speaker/188565088.png</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>images/tv/product_276389560.jpg</t>
+          <t>images_png/tv/276389560.png</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>images/camera/product_106641569.jpg</t>
+          <t>images_png/camera/106641569.png</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>images/camera/product_4713289.jpg</t>
+          <t>images_png/camera/4713289.png</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>images/phone/product_277574339.jpg</t>
+          <t>images_png/phone/277574339.png</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>images/phone/product_277619147.jpg</t>
+          <t>images_png/phone/277619147.png</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>images/speaker/product_73204703.jpg</t>
+          <t>images_png/speaker/73204703.png</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>images/speaker/product_21430781.jpg</t>
+          <t>images_png/speaker/21430781.png</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>images/phone/product_230155305.jpg</t>
+          <t>images_png/phone/230155305.png</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>images/phone/product_181452535.jpg</t>
+          <t>images_png/phone/181452535.png</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>images/phone/product_252586291.jpg</t>
+          <t>images_png/phone/252586291.png</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>images/speaker/product_271966725.jpg</t>
+          <t>images_png/speaker/271966725.png</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>images/camera/product_270977170.jpg</t>
+          <t>images_png/camera/270977170.png</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>images/speaker/product_196201409.jpg</t>
+          <t>images_png/speaker/196201409.png</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>images/camera/product_247421211.jpg</t>
+          <t>images_png/camera/247421211.png</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>images/phone/product_276110276.jpg</t>
+          <t>images_png/phone/276110276.png</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>images/camera/product_270977143.jpg</t>
+          <t>images_png/camera/270977143.png</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>images/camera/product_274184675.jpg</t>
+          <t>images_png/camera/274184675.png</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>images/camera/product_212934661.jpg</t>
+          <t>images_png/camera/212934661.png</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>images/camera/product_57071523.jpg</t>
+          <t>images_png/camera/57071523.png</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>images/camera/product_274879959.jpg</t>
+          <t>images_png/camera/274879959.png</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>images/camera/product_263972675.jpg</t>
+          <t>images_png/camera/263972675.png</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>images/camera/product_64672917.jpg</t>
+          <t>images_png/camera/64672917.png</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>images/tv/product_277972475.jpg</t>
+          <t>images_png/tv/277972475.png</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>images/camera/product_203898270.jpg</t>
+          <t>images_png/camera/203898270.png</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>images/camera/product_85764360.jpg</t>
+          <t>images_png/camera/85764360.png</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>images/phone/product_164213695.jpg</t>
+          <t>images_png/phone/164213695.png</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>images/tv/product_277972387.jpg</t>
+          <t>images_png/tv/277972387.png</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>images/camera/product_131416196.jpg</t>
+          <t>images_png/camera/131416196.png</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>images/phone/product_277930407.jpg</t>
+          <t>images_png/phone/277930407.png</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>images/camera/product_270545009.jpg</t>
+          <t>images_png/camera/270545009.png</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>images/camera/product_10716498.jpg</t>
+          <t>images_png/camera/10716498.png</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>images/phone/product_170165701.jpg</t>
+          <t>images_png/phone/170165701.png</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>images/camera/product_275544310.jpg</t>
+          <t>images_png/camera/275544310.png</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>images/speaker/product_274704359.jpg</t>
+          <t>images_png/speaker/274704359.png</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>images/camera/product_194130039.jpg</t>
+          <t>images_png/camera/194130039.png</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>images/phone/product_278237932.jpg</t>
+          <t>images_png/phone/278237932.png</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>images/camera/product_194067352.jpg</t>
+          <t>images_png/camera/194067352.png</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>images/speaker/product_48576455.jpg</t>
+          <t>images_png/speaker/48576455.png</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>images/camera/product_205224085.jpg</t>
+          <t>images_png/camera/205224085.png</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>images/camera/product_272030250.jpg</t>
+          <t>images_png/camera/272030250.png</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>images/camera/product_274069561.jpg</t>
+          <t>images_png/camera/274069561.png</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>images/phone/product_272222033.jpg</t>
+          <t>images_png/phone/272222033.png</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>images/speaker/product_153544569.jpg</t>
+          <t>images_png/speaker/153544569.png</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>images/speaker/product_277980303.jpg</t>
+          <t>images_png/speaker/277980303.png</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>images/camera/product_275959921.jpg</t>
+          <t>images_png/camera/275959921.png</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>images/speaker/product_273084814.jpg</t>
+          <t>images_png/speaker/273084814.png</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>images/camera/product_274065704.jpg</t>
+          <t>images_png/camera/274065704.png</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>images/speaker/product_275513834.jpg</t>
+          <t>images_png/speaker/275513834.png</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>images/speaker/product_127600345.jpg</t>
+          <t>images_png/speaker/127600345.png</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>images/speaker/product_252390163.jpg</t>
+          <t>images_png/speaker/252390163.png</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>images/camera/product_271705499.jpg</t>
+          <t>images_png/camera/271705499.png</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>images/speaker/product_252963851.jpg</t>
+          <t>images_png/speaker/252963851.png</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>images/camera/product_269944956.jpg</t>
+          <t>images_png/camera/269944956.png</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>images/camera/product_272268455.jpg</t>
+          <t>images_png/camera/272268455.png</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>images/speaker/product_55508641.jpg</t>
+          <t>images_png/speaker/55508641.png</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>images/camera/product_113427448.jpg</t>
+          <t>images_png/camera/113427448.png</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>images/camera/product_104070115.jpg</t>
+          <t>images_png/camera/104070115.png</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>images/camera/product_270977103.jpg</t>
+          <t>images_png/camera/270977103.png</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>images/camera/product_275257961.jpg</t>
+          <t>images_png/camera/275257961.png</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>images/camera/product_272967613.jpg</t>
+          <t>images_png/camera/272967613.png</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>images/camera/product_15375941.jpg</t>
+          <t>images_png/camera/15375941.png</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>images/phone/product_164318603.jpg</t>
+          <t>images_png/phone/164318603.png</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>images/speaker/product_171232872.jpg</t>
+          <t>images_png/speaker/171232872.png</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>images/camera/product_194121937.jpg</t>
+          <t>images_png/camera/194121937.png</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>images/speaker/product_17539156.jpg</t>
+          <t>images_png/speaker/17539156.png</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>images/camera/product_154259057.jpg</t>
+          <t>images_png/camera/154259057.png</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>images/speaker/product_104180.jpg</t>
+          <t>images_png/speaker/104180.png</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>images/camera/product_133876927.jpg</t>
+          <t>images_png/camera/133876927.png</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>images/camera/product_273932705.jpg</t>
+          <t>images_png/camera/273932705.png</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>images/camera/product_193105103.jpg</t>
+          <t>images_png/camera/193105103.png</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>images/phone/product_274405521.jpg</t>
+          <t>images_png/phone/274405521.png</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>images/camera/product_262891821.jpg</t>
+          <t>images_png/camera/262891821.png</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>images/camera/product_273644429.jpg</t>
+          <t>images_png/camera/273644429.png</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>images/phone/product_181927774.jpg</t>
+          <t>images_png/phone/181927774.png</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>images/speaker/product_276386509.jpg</t>
+          <t>images_png/speaker/276386509.png</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>images/camera/product_41319582.jpg</t>
+          <t>images_png/camera/41319582.png</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>images/camera/product_271248861.jpg</t>
+          <t>images_png/camera/271248861.png</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -11413,7 +11413,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>images/phone/product_274544634.jpg</t>
+          <t>images_png/phone/274544634.png</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>images/camera/product_274728425.jpg</t>
+          <t>images_png/camera/274728425.png</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>images/speaker/product_47099726.jpg</t>
+          <t>images_png/speaker/47099726.png</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -11695,7 +11695,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>images/speaker/product_274943200.jpg</t>
+          <t>images_png/speaker/274943200.png</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>images/camera/product_274567496.jpg</t>
+          <t>images_png/camera/274567496.png</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>images/camera/product_275255482.jpg</t>
+          <t>images_png/camera/275255482.png</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>images/phone/product_271128271.jpg</t>
+          <t>images_png/phone/271128271.png</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>images/speaker/product_165345530.jpg</t>
+          <t>images_png/speaker/165345530.png</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>images/camera/product_277601288.jpg</t>
+          <t>images_png/camera/277601288.png</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -12259,7 +12259,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>images/speaker/product_275467638.jpg</t>
+          <t>images_png/speaker/275467638.png</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>images/speaker/product_241639907.jpg</t>
+          <t>images_png/speaker/241639907.png</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>images/speaker/product_6610413.jpg</t>
+          <t>images_png/speaker/6610413.png</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>images/tv/product_278138258.jpg</t>
+          <t>images_png/tv/278138258.png</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -12635,7 +12635,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>images/phone/product_278000720.jpg</t>
+          <t>images_png/phone/278000720.png</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -12729,7 +12729,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>images/phone/product_276448920.jpg</t>
+          <t>images_png/phone/276448920.png</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>images/camera/product_242482796.jpg</t>
+          <t>images_png/camera/242482796.png</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>images/camera/product_25309442.jpg</t>
+          <t>images_png/camera/25309442.png</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>images/phone/product_273990229.jpg</t>
+          <t>images_png/phone/273990229.png</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -13105,7 +13105,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>images/phone/product_277614251.jpg</t>
+          <t>images_png/phone/277614251.png</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>images/camera/product_187642259.jpg</t>
+          <t>images_png/camera/187642259.png</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>images/camera/product_174896487.jpg</t>
+          <t>images_png/camera/174896487.png</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>images/speaker/product_273328383.jpg</t>
+          <t>images_png/speaker/273328383.png</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>images/speaker/product_276075466.jpg</t>
+          <t>images_png/speaker/276075466.png</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>images/phone/product_277311630.jpg</t>
+          <t>images_png/phone/277311630.png</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -13669,7 +13669,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>images/camera/product_274954348.jpg</t>
+          <t>images_png/camera/274954348.png</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -13763,7 +13763,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>images/camera/product_276021394.jpg</t>
+          <t>images_png/camera/276021394.png</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>images/phone/product_275913708.jpg</t>
+          <t>images_png/phone/275913708.png</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>images/phone/product_274191773.jpg</t>
+          <t>images_png/phone/274191773.png</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>images/speaker/product_273054021.jpg</t>
+          <t>images_png/speaker/273054021.png</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>images/speaker/product_117916066.jpg</t>
+          <t>images_png/speaker/117916066.png</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>images/phone/product_276489194.jpg</t>
+          <t>images_png/phone/276489194.png</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -14327,7 +14327,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>images/phone/product_276500230.jpg</t>
+          <t>images_png/phone/276500230.png</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>images/phone/product_276802409.jpg</t>
+          <t>images_png/phone/276802409.png</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -14515,7 +14515,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>images/phone/product_276944868.jpg</t>
+          <t>images_png/phone/276944868.png</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>images/phone/product_277356031.jpg</t>
+          <t>images_png/phone/277356031.png</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>images/phone/product_277607297.jpg</t>
+          <t>images_png/phone/277607297.png</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>images/phone/product_277651890.jpg</t>
+          <t>images_png/phone/277651890.png</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>images/phone/product_277704510.jpg</t>
+          <t>images_png/phone/277704510.png</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -14985,7 +14985,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>images/phone/product_277707642.jpg</t>
+          <t>images_png/phone/277707642.png</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>images/phone/product_277944334.jpg</t>
+          <t>images_png/phone/277944334.png</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -15173,7 +15173,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>images/camera/product_272366633.jpg</t>
+          <t>images_png/camera/272366633.png</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>images/phone/product_277356193.jpg</t>
+          <t>images_png/phone/277356193.png</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>images/camera/product_277381589.jpg</t>
+          <t>images_png/camera/277381589.png</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>images/camera/product_186103396.jpg</t>
+          <t>images_png/camera/186103396.png</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -15549,7 +15549,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>images/speaker/product_95469367.jpg</t>
+          <t>images_png/speaker/95469367.png</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -15643,7 +15643,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>images/camera/product_277417151.jpg</t>
+          <t>images_png/camera/277417151.png</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>images/phone/product_277175913.jpg</t>
+          <t>images_png/phone/277175913.png</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>images/speaker/product_277369759.jpg</t>
+          <t>images_png/speaker/277369759.png</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -15925,7 +15925,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>images/phone/product_274516951.jpg</t>
+          <t>images_png/phone/274516951.png</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>images/camera/product_4688899.jpg</t>
+          <t>images_png/camera/4688899.png</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>images/camera/product_263987622.jpg</t>
+          <t>images_png/camera/263987622.png</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -16207,7 +16207,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>images/camera/product_135839773.jpg</t>
+          <t>images_png/camera/135839773.png</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>images/camera/product_274724794.jpg</t>
+          <t>images_png/camera/274724794.png</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>images/speaker/product_176167334.jpg</t>
+          <t>images_png/speaker/176167334.png</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>images/camera/product_274184765.jpg</t>
+          <t>images_png/camera/274184765.png</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>images/camera/product_275938579.jpg</t>
+          <t>images_png/camera/275938579.png</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>images/speaker/product_2013189.jpg</t>
+          <t>images_png/speaker/2013189.png</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -16771,7 +16771,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>images/phone/product_277063012.jpg</t>
+          <t>images_png/phone/277063012.png</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>images/speaker/product_191320811.jpg</t>
+          <t>images_png/speaker/191320811.png</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -16959,7 +16959,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>images/camera/product_275856061.jpg</t>
+          <t>images_png/camera/275856061.png</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>images/tv/product_278138206.jpg</t>
+          <t>images_png/tv/278138206.png</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -17147,7 +17147,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>images/phone/product_276274790.jpg</t>
+          <t>images_png/phone/276274790.png</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -17241,7 +17241,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>images/phone/product_277360579.jpg</t>
+          <t>images_png/phone/277360579.png</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>images/phone/product_277465334.jpg</t>
+          <t>images_png/phone/277465334.png</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>images/camera/product_274179036.jpg</t>
+          <t>images_png/camera/274179036.png</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>images/camera/product_275511061.jpg</t>
+          <t>images_png/camera/275511061.png</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -17617,7 +17617,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>images/speaker/product_276253314.jpg</t>
+          <t>images_png/speaker/276253314.png</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>images/speaker/product_275254778.jpg</t>
+          <t>images_png/speaker/275254778.png</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -17805,7 +17805,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>images/speaker/product_276747066.jpg</t>
+          <t>images_png/speaker/276747066.png</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -17899,7 +17899,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>images/phone/product_277164932.jpg</t>
+          <t>images_png/phone/277164932.png</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -17993,7 +17993,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>images/phone/product_276099688.jpg</t>
+          <t>images_png/phone/276099688.png</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>images/camera/product_193102256.jpg</t>
+          <t>images_png/camera/193102256.png</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>images/speaker/product_95866327.jpg</t>
+          <t>images_png/speaker/95866327.png</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -18275,7 +18275,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>images/camera/product_253489396.jpg</t>
+          <t>images_png/camera/253489396.png</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>images/camera/product_263588554.jpg</t>
+          <t>images_png/camera/263588554.png</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -18463,7 +18463,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>images/phone/product_277737595.jpg</t>
+          <t>images_png/phone/277737595.png</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>images/speaker/product_76062253.jpg</t>
+          <t>images_png/speaker/76062253.png</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -18651,7 +18651,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>images/phone/product_276539826.jpg</t>
+          <t>images_png/phone/276539826.png</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -18745,7 +18745,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>images/speaker/product_241638318.jpg</t>
+          <t>images_png/speaker/241638318.png</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -18839,7 +18839,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>images/speaker/product_276856800.jpg</t>
+          <t>images_png/speaker/276856800.png</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>images/speaker/product_276253446.jpg</t>
+          <t>images_png/speaker/276253446.png</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -19027,7 +19027,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>images/speaker/product_273602049.jpg</t>
+          <t>images_png/speaker/273602049.png</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>images/camera/product_263596152.jpg</t>
+          <t>images_png/camera/263596152.png</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -19215,7 +19215,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>images/speaker/product_278067024.jpg</t>
+          <t>images_png/speaker/278067024.png</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -19309,7 +19309,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>images/speaker/product_172369953.jpg</t>
+          <t>images_png/speaker/172369953.png</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>images/speaker/product_165025828.jpg</t>
+          <t>images_png/speaker/165025828.png</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -19497,7 +19497,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>images/speaker/product_145717791.jpg</t>
+          <t>images_png/speaker/145717791.png</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -19591,7 +19591,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>images/speaker/product_276251942.jpg</t>
+          <t>images_png/speaker/276251942.png</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -19685,7 +19685,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>images/speaker/product_277468981.jpg</t>
+          <t>images_png/speaker/277468981.png</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -19779,7 +19779,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>images/phone/product_277068413.jpg</t>
+          <t>images_png/phone/277068413.png</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>images/speaker/product_278149668.jpg</t>
+          <t>images_png/speaker/278149668.png</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -19967,7 +19967,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>images/speaker/product_277615987.jpg</t>
+          <t>images_png/speaker/277615987.png</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -20061,7 +20061,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>images/camera/product_222452404.jpg</t>
+          <t>images_png/camera/222452404.png</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -20155,7 +20155,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>images/speaker/product_274408482.jpg</t>
+          <t>images_png/speaker/274408482.png</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -20249,7 +20249,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>images/speaker/product_277771239.jpg</t>
+          <t>images_png/speaker/277771239.png</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -20343,7 +20343,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>images/speaker/product_108379905.jpg</t>
+          <t>images_png/speaker/108379905.png</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -20437,7 +20437,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>images/speaker/product_88191430.jpg</t>
+          <t>images_png/speaker/88191430.png</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -20531,7 +20531,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>images/speaker/product_82861299.jpg</t>
+          <t>images_png/speaker/82861299.png</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -20625,7 +20625,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>images/speaker/product_50322624.jpg</t>
+          <t>images_png/speaker/50322624.png</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -20719,7 +20719,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>images/speaker/product_277421606.jpg</t>
+          <t>images_png/speaker/277421606.png</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -20813,7 +20813,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>images/camera/product_275918344.jpg</t>
+          <t>images_png/camera/275918344.png</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -20907,7 +20907,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>images/phone/product_277014407.jpg</t>
+          <t>images_png/phone/277014407.png</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>images/phone/product_277164948.jpg</t>
+          <t>images_png/phone/277164948.png</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -21095,7 +21095,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>images/tv/product_275646608.jpg</t>
+          <t>images_png/tv/275646608.png</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -21189,7 +21189,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>images/phone/product_23142193.jpg</t>
+          <t>images_png/phone/23142193.png</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>images/tv/product_275194363.jpg</t>
+          <t>images_png/tv/275194363.png</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -21377,7 +21377,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>images/speaker/product_75301142.jpg</t>
+          <t>images_png/speaker/75301142.png</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>images/tv/product_274870710.jpg</t>
+          <t>images_png/tv/274870710.png</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>images/speaker/product_57900120.jpg</t>
+          <t>images_png/speaker/57900120.png</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>images/phone/product_277512620.jpg</t>
+          <t>images_png/phone/277512620.png</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -21753,7 +21753,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>images/tv/product_73681047.jpg</t>
+          <t>images_png/tv/73681047.png</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -21847,7 +21847,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>images/speaker/product_80959641.jpg</t>
+          <t>images_png/speaker/80959641.png</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -21941,7 +21941,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>images/speaker/product_276280160.jpg</t>
+          <t>images_png/speaker/276280160.png</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>images/speaker/product_276566181.jpg</t>
+          <t>images_png/speaker/276566181.png</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -22129,7 +22129,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>images/phone/product_276639232.jpg</t>
+          <t>images_png/phone/276639232.png</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -22223,7 +22223,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>images/phone/product_276944892.jpg</t>
+          <t>images_png/phone/276944892.png</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -22317,7 +22317,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>images/camera/product_274847176.jpg</t>
+          <t>images_png/camera/274847176.png</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>images/camera/product_273951675.jpg</t>
+          <t>images_png/camera/273951675.png</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -22505,7 +22505,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>images/camera/product_277965399.jpg</t>
+          <t>images_png/camera/277965399.png</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -22599,7 +22599,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>images/camera/product_270964237.jpg</t>
+          <t>images_png/camera/270964237.png</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -22693,7 +22693,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>images/laptop/product_108924121.jpg</t>
+          <t>images_png/laptop/108924121.png</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -22787,7 +22787,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>images/laptop/product_67982880.jpg</t>
+          <t>images_png/laptop/67982880.png</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -22881,7 +22881,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>images/phone/product_277737629.jpg</t>
+          <t>images_png/phone/277737629.png</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -22975,7 +22975,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>images/camera/product_276711006.jpg</t>
+          <t>images_png/camera/276711006.png</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -23069,7 +23069,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>images/camera/product_277015260.jpg</t>
+          <t>images_png/camera/277015260.png</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -23163,7 +23163,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>images/speaker/product_164285225.jpg</t>
+          <t>images_png/speaker/164285225.png</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>images/phone/product_276410628.jpg</t>
+          <t>images_png/phone/276410628.png</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>images/camera/product_277827500.jpg</t>
+          <t>images_png/camera/277827500.png</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -23445,7 +23445,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>images/phone/product_11251770.jpg</t>
+          <t>images_png/phone/11251770.png</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -23539,7 +23539,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>images/camera/product_277356246.jpg</t>
+          <t>images_png/camera/277356246.png</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -23633,7 +23633,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>images/camera/product_273026293.jpg</t>
+          <t>images_png/camera/273026293.png</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -23727,7 +23727,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>images/speaker/product_273959250.jpg</t>
+          <t>images_png/speaker/273959250.png</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>images/camera/product_271234773.jpg</t>
+          <t>images_png/camera/271234773.png</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -23915,7 +23915,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>images/phone/product_276465090.jpg</t>
+          <t>images_png/phone/276465090.png</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -24009,7 +24009,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>images/speaker/product_82874789.jpg</t>
+          <t>images_png/speaker/82874789.png</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -24103,7 +24103,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>images/tv/product_118537278.jpg</t>
+          <t>images_png/tv/118537278.png</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -24197,7 +24197,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>images/phone/product_277409699.jpg</t>
+          <t>images_png/phone/277409699.png</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>images/speaker/product_152521511.jpg</t>
+          <t>images_png/speaker/152521511.png</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -24385,7 +24385,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>images/speaker/product_275761136.jpg</t>
+          <t>images_png/speaker/275761136.png</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -24479,7 +24479,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>images/speaker/product_277582223.jpg</t>
+          <t>images_png/speaker/277582223.png</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -24573,7 +24573,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>images/camera/product_275326681.jpg</t>
+          <t>images_png/camera/275326681.png</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -24667,7 +24667,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>images/camera/product_277470272.jpg</t>
+          <t>images_png/camera/277470272.png</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -24761,7 +24761,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>images/speaker/product_58393093.jpg</t>
+          <t>images_png/speaker/58393093.png</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>images/phone/product_276281988.jpg</t>
+          <t>images_png/phone/276281988.png</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -24949,7 +24949,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>images/phone/product_276314708.jpg</t>
+          <t>images_png/phone/276314708.png</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -25043,7 +25043,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>images/phone/product_277030799.jpg</t>
+          <t>images_png/phone/277030799.png</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -25137,7 +25137,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>images/speaker/product_277820438.jpg</t>
+          <t>images_png/speaker/277820438.png</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -25231,7 +25231,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>images/phone/product_278219887.jpg</t>
+          <t>images_png/phone/278219887.png</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>images/tv/product_277971781.jpg</t>
+          <t>images_png/tv/277971781.png</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -25419,7 +25419,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>images/speaker/product_77712221.jpg</t>
+          <t>images_png/speaker/77712221.png</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -25513,7 +25513,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>images/camera/product_277854019.jpg</t>
+          <t>images_png/camera/277854019.png</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -25607,7 +25607,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>images/tv/product_276268195.jpg</t>
+          <t>images_png/tv/276268195.png</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -25701,7 +25701,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>images/phone/product_271954384.jpg</t>
+          <t>images_png/phone/271954384.png</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>images/speaker/product_271515346.jpg</t>
+          <t>images_png/speaker/271515346.png</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -25889,7 +25889,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>images/speaker/product_274165805.jpg</t>
+          <t>images_png/speaker/274165805.png</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -25983,7 +25983,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>images/phone/product_277437876.jpg</t>
+          <t>images_png/phone/277437876.png</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -26077,7 +26077,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>images/speaker/product_277581685.jpg</t>
+          <t>images_png/speaker/277581685.png</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -26171,7 +26171,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>images/speaker/product_123926245.jpg</t>
+          <t>images_png/speaker/123926245.png</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>images/tv/product_197883135.jpg</t>
+          <t>images_png/tv/197883135.png</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -26359,7 +26359,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>images/speaker/product_277548884.jpg</t>
+          <t>images_png/speaker/277548884.png</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -26453,7 +26453,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>images/phone/product_277812880.jpg</t>
+          <t>images_png/phone/277812880.png</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -26547,7 +26547,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>images/tv/product_275244939.jpg</t>
+          <t>images_png/tv/275244939.png</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -26641,7 +26641,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>images/tv/product_275245028.jpg</t>
+          <t>images_png/tv/275245028.png</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -26735,7 +26735,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>images/tv/product_275249046.jpg</t>
+          <t>images_png/tv/275249046.png</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -26829,7 +26829,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>images/tv/product_275270303.jpg</t>
+          <t>images_png/tv/275270303.png</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -26923,7 +26923,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>images/tv/product_275244561.jpg</t>
+          <t>images_png/tv/275244561.png</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -27017,7 +27017,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>images/tv/product_274880735.jpg</t>
+          <t>images_png/tv/274880735.png</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>images/tv/product_276861471.jpg</t>
+          <t>images_png/tv/276861471.png</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -27205,7 +27205,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>images/tv/product_275603326.jpg</t>
+          <t>images_png/tv/275603326.png</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>images/tv/product_275655333.jpg</t>
+          <t>images_png/tv/275655333.png</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -27393,7 +27393,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>images/tv/product_276621654.jpg</t>
+          <t>images_png/tv/276621654.png</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -27487,7 +27487,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>images/speaker/product_184077032.jpg</t>
+          <t>images_png/speaker/184077032.png</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -27581,7 +27581,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>images/tv/product_275805126.jpg</t>
+          <t>images_png/tv/275805126.png</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -27675,7 +27675,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>images/tv/product_276412014.jpg</t>
+          <t>images_png/tv/276412014.png</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -27769,7 +27769,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>images/tv/product_276415813.jpg</t>
+          <t>images_png/tv/276415813.png</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -27863,7 +27863,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>images/tv/product_276606018.jpg</t>
+          <t>images_png/tv/276606018.png</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -27957,7 +27957,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>images/tv/product_275655645.jpg</t>
+          <t>images_png/tv/275655645.png</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -28051,7 +28051,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>images/tv/product_276860956.jpg</t>
+          <t>images_png/tv/276860956.png</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -28145,7 +28145,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>images/tv/product_276861683.jpg</t>
+          <t>images_png/tv/276861683.png</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -28239,7 +28239,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>images/tv/product_276032905.jpg</t>
+          <t>images_png/tv/276032905.png</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -28333,7 +28333,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>images/tv/product_276089188.jpg</t>
+          <t>images_png/tv/276089188.png</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -28427,7 +28427,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>images/tv/product_276252722.jpg</t>
+          <t>images_png/tv/276252722.png</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -28521,7 +28521,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>images/tv/product_276379164.jpg</t>
+          <t>images_png/tv/276379164.png</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -28615,7 +28615,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>images/tv/product_278077327.jpg</t>
+          <t>images_png/tv/278077327.png</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -28709,7 +28709,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>images/tv/product_276387015.jpg</t>
+          <t>images_png/tv/276387015.png</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>images/tv/product_277989405.jpg</t>
+          <t>images_png/tv/277989405.png</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>images/tv/product_277988890.jpg</t>
+          <t>images_png/tv/277988890.png</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -28991,7 +28991,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>images/tv/product_277976029.jpg</t>
+          <t>images_png/tv/277976029.png</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>images/tv/product_277429931.jpg</t>
+          <t>images_png/tv/277429931.png</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -29179,7 +29179,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>images/tv/product_276931435.jpg</t>
+          <t>images_png/tv/276931435.png</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>images/tv/product_276606293.jpg</t>
+          <t>images_png/tv/276606293.png</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -29367,7 +29367,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>images/tv/product_276621107.jpg</t>
+          <t>images_png/tv/276621107.png</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -29461,7 +29461,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>images/tv/product_275987600.jpg</t>
+          <t>images_png/tv/275987600.png</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -29555,7 +29555,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>images/tv/product_275603347.jpg</t>
+          <t>images_png/tv/275603347.png</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -29649,7 +29649,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>images/tv/product_275603123.jpg</t>
+          <t>images_png/tv/275603123.png</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -29743,7 +29743,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>images/tv/product_275269812.jpg</t>
+          <t>images_png/tv/275269812.png</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -29837,7 +29837,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>images/tv/product_275020992.jpg</t>
+          <t>images_png/tv/275020992.png</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -29931,7 +29931,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>images/tv/product_275019168.jpg</t>
+          <t>images_png/tv/275019168.png</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -30025,7 +30025,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>images/tv/product_274877090.jpg</t>
+          <t>images_png/tv/274877090.png</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -30119,7 +30119,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>images/tv/product_274843323.jpg</t>
+          <t>images_png/tv/274843323.png</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>images/tv/product_248237801.jpg</t>
+          <t>images_png/tv/248237801.png</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -30307,7 +30307,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>images/tv/product_246208809.jpg</t>
+          <t>images_png/tv/246208809.png</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -30401,7 +30401,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>images/tv/product_49089541.jpg</t>
+          <t>images_png/tv/49089541.png</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -30495,7 +30495,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>images/tv/product_2003079.jpg</t>
+          <t>images_png/tv/2003079.png</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -30589,7 +30589,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>images/tv/product_277991140.jpg</t>
+          <t>images_png/tv/277991140.png</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>images/tv/product_277575279.jpg</t>
+          <t>images_png/tv/277575279.png</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -30777,7 +30777,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>images/tv/product_277485884.jpg</t>
+          <t>images_png/tv/277485884.png</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>images/tv/product_278220734.jpg</t>
+          <t>images_png/tv/278220734.png</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -30965,7 +30965,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>images/speaker/product_271829222.jpg</t>
+          <t>images_png/speaker/271829222.png</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -31059,7 +31059,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>images/tv/product_276862301.jpg</t>
+          <t>images_png/tv/276862301.png</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -31153,7 +31153,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>images/tv/product_275803796.jpg</t>
+          <t>images_png/tv/275803796.png</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>images/tv/product_277575237.jpg</t>
+          <t>images_png/tv/277575237.png</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -31341,7 +31341,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>images/tv/product_72797571.jpg</t>
+          <t>images_png/tv/72797571.png</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -31435,7 +31435,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>images/tv/product_90655703.jpg</t>
+          <t>images_png/tv/90655703.png</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -31529,7 +31529,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>images/tv/product_92504473.jpg</t>
+          <t>images_png/tv/92504473.png</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -31623,7 +31623,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>images/tv/product_176058957.jpg</t>
+          <t>images_png/tv/176058957.png</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -31717,7 +31717,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>images/tv/product_178062046.jpg</t>
+          <t>images_png/tv/178062046.png</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -31811,7 +31811,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>images/tv/product_178093791.jpg</t>
+          <t>images_png/tv/178093791.png</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -31905,7 +31905,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>images/tv/product_276921311.jpg</t>
+          <t>images_png/tv/276921311.png</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -31999,7 +31999,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>images/speaker/product_277521161.jpg</t>
+          <t>images_png/speaker/277521161.png</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -32093,7 +32093,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>images/tv/product_207872108.jpg</t>
+          <t>images_png/tv/207872108.png</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -32187,7 +32187,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>images/tv/product_248208320.jpg</t>
+          <t>images_png/tv/248208320.png</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -32281,7 +32281,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>images/tv/product_253502839.jpg</t>
+          <t>images_png/tv/253502839.png</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -32375,7 +32375,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>images/tv/product_263584620.jpg</t>
+          <t>images_png/tv/263584620.png</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -32469,7 +32469,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>images/tv/product_274843293.jpg</t>
+          <t>images_png/tv/274843293.png</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -32563,7 +32563,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>images/speaker/product_276075423.jpg</t>
+          <t>images_png/speaker/276075423.png</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -32657,7 +32657,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>images/tv/product_274843351.jpg</t>
+          <t>images_png/tv/274843351.png</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -32751,7 +32751,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>images/tv/product_274876803.jpg</t>
+          <t>images_png/tv/274876803.png</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -32845,7 +32845,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>images/speaker/product_274046847.jpg</t>
+          <t>images_png/speaker/274046847.png</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -32939,7 +32939,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>images/tv/product_274969952.jpg</t>
+          <t>images_png/tv/274969952.png</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -33033,7 +33033,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>images/speaker/product_275130480.jpg</t>
+          <t>images_png/speaker/275130480.png</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -33127,7 +33127,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>images/tv/product_275020293.jpg</t>
+          <t>images_png/tv/275020293.png</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -33221,7 +33221,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>images/tv/product_275244717.jpg</t>
+          <t>images_png/tv/275244717.png</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -33315,7 +33315,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>images/tv/product_275245456.jpg</t>
+          <t>images_png/tv/275245456.png</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -33409,7 +33409,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>images/tv/product_275249107.jpg</t>
+          <t>images_png/tv/275249107.png</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -33503,7 +33503,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>images/tv/product_275602893.jpg</t>
+          <t>images_png/tv/275602893.png</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -33597,7 +33597,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>images/tv/product_275603494.jpg</t>
+          <t>images_png/tv/275603494.png</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -33691,7 +33691,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>images/speaker/product_272286025.jpg</t>
+          <t>images_png/speaker/272286025.png</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -33785,7 +33785,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>images/tv/product_189176771.jpg</t>
+          <t>images_png/tv/189176771.png</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -33879,7 +33879,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>images/tv/product_274870762.jpg</t>
+          <t>images_png/tv/274870762.png</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -33973,7 +33973,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>images/speaker/product_275855621.jpg</t>
+          <t>images_png/speaker/275855621.png</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -34067,7 +34067,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>images/speaker/product_278149617.jpg</t>
+          <t>images_png/speaker/278149617.png</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>images/camera/product_202904152.jpg</t>
+          <t>images_png/camera/202904152.png</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -34255,7 +34255,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>images/camera/product_277497107.jpg</t>
+          <t>images_png/camera/277497107.png</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -34349,7 +34349,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>images/phone/product_277041250.jpg</t>
+          <t>images_png/phone/277041250.png</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -34443,7 +34443,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>images/phone/product_277175955.jpg</t>
+          <t>images_png/phone/277175955.png</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -34537,7 +34537,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>images/phone/product_276925932.jpg</t>
+          <t>images_png/phone/276925932.png</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -34631,7 +34631,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>images/phone/product_276062770.jpg</t>
+          <t>images_png/phone/276062770.png</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -34725,7 +34725,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>images/camera/product_248585546.jpg</t>
+          <t>images_png/camera/248585546.png</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -34819,7 +34819,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>images/laptop/product_276378910.jpg</t>
+          <t>images_png/laptop/276378910.png</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -34913,7 +34913,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>images/speaker/product_13331940.jpg</t>
+          <t>images_png/speaker/13331940.png</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -35007,7 +35007,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>images/phone/product_277512611.jpg</t>
+          <t>images_png/phone/277512611.png</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -35101,7 +35101,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>images/phone/product_277646748.jpg</t>
+          <t>images_png/phone/277646748.png</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -35195,7 +35195,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>images/laptop/product_276366329.jpg</t>
+          <t>images_png/laptop/276366329.png</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -35289,7 +35289,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>images/laptop/product_277672516.jpg</t>
+          <t>images_png/laptop/277672516.png</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -35383,7 +35383,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>images/laptop/product_276365829.jpg</t>
+          <t>images_png/laptop/276365829.png</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -35477,7 +35477,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>images/laptop/product_276366080.jpg</t>
+          <t>images_png/laptop/276366080.png</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -35571,7 +35571,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>images/laptop/product_276366221.jpg</t>
+          <t>images_png/laptop/276366221.png</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -35665,7 +35665,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>images/laptop/product_277446629.jpg</t>
+          <t>images_png/laptop/277446629.png</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -35759,7 +35759,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>images/laptop/product_277466579.jpg</t>
+          <t>images_png/laptop/277466579.png</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -35853,7 +35853,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>images/laptop/product_277462473.jpg</t>
+          <t>images_png/laptop/277462473.png</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -35947,7 +35947,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>images/laptop/product_276603695.jpg</t>
+          <t>images_png/laptop/276603695.png</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -36041,7 +36041,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>images/laptop/product_275854376.jpg</t>
+          <t>images_png/laptop/275854376.png</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -36135,7 +36135,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>images/laptop/product_277363548.jpg</t>
+          <t>images_png/laptop/277363548.png</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -36229,7 +36229,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>images/tv/product_275245427.jpg</t>
+          <t>images_png/tv/275245427.png</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -36323,7 +36323,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>images/laptop/product_277361271.jpg</t>
+          <t>images_png/laptop/277361271.png</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -36417,7 +36417,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>images/tv/product_276362981.jpg</t>
+          <t>images_png/tv/276362981.png</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -36511,7 +36511,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>images/tv/product_276319244.jpg</t>
+          <t>images_png/tv/276319244.png</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -36605,7 +36605,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>images/laptop/product_252566338.jpg</t>
+          <t>images_png/laptop/252566338.png</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -36699,7 +36699,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>images/tv/product_197920267.jpg</t>
+          <t>images_png/tv/197920267.png</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -36793,7 +36793,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863351.jpg</t>
+          <t>images_png/laptop/214863351.png</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -36887,7 +36887,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863371.jpg</t>
+          <t>images_png/laptop/214863371.png</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -36981,7 +36981,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863401.jpg</t>
+          <t>images_png/laptop/214863401.png</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -37075,7 +37075,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>images/laptop/product_225363237.jpg</t>
+          <t>images_png/laptop/225363237.png</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -37169,7 +37169,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>images/laptop/product_225934432.jpg</t>
+          <t>images_png/laptop/225934432.png</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -37263,7 +37263,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>images/laptop/product_273231142.jpg</t>
+          <t>images_png/laptop/273231142.png</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -37357,7 +37357,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>images/laptop/product_277912715.jpg</t>
+          <t>images_png/laptop/277912715.png</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -37451,7 +37451,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>images/laptop/product_273647623.jpg</t>
+          <t>images_png/laptop/273647623.png</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -37545,7 +37545,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>images/laptop/product_275154280.jpg</t>
+          <t>images_png/laptop/275154280.png</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -37639,7 +37639,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>images/laptop/product_275382529.jpg</t>
+          <t>images_png/laptop/275382529.png</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>images/laptop/product_275721993.jpg</t>
+          <t>images_png/laptop/275721993.png</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -37827,7 +37827,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>images/laptop/product_275746519.jpg</t>
+          <t>images_png/laptop/275746519.png</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -37921,7 +37921,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>images/laptop/product_275850110.jpg</t>
+          <t>images_png/laptop/275850110.png</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -38015,7 +38015,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>images/tv/product_274870404.jpg</t>
+          <t>images_png/tv/274870404.png</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -38109,7 +38109,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>images/laptop/product_278229740.jpg</t>
+          <t>images_png/laptop/278229740.png</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -38203,7 +38203,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>images/laptop/product_277912717.jpg</t>
+          <t>images_png/laptop/277912717.png</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -38297,7 +38297,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>images/laptop/product_252566514.jpg</t>
+          <t>images_png/laptop/252566514.png</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -38391,7 +38391,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>images/laptop/product_277363552.jpg</t>
+          <t>images_png/laptop/277363552.png</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -38485,7 +38485,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>images/laptop/product_277361314.jpg</t>
+          <t>images_png/laptop/277361314.png</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -38579,7 +38579,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>images/laptop/product_276370396.jpg</t>
+          <t>images_png/laptop/276370396.png</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -38673,7 +38673,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>images/laptop/product_276366370.jpg</t>
+          <t>images_png/laptop/276366370.png</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -38767,7 +38767,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>images/tv/product_275268806.jpg</t>
+          <t>images_png/tv/275268806.png</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -38861,7 +38861,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>images/laptop/product_276366073.jpg</t>
+          <t>images_png/laptop/276366073.png</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -38955,7 +38955,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>images/laptop/product_275854386.jpg</t>
+          <t>images_png/laptop/275854386.png</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -39049,7 +39049,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>images/laptop/product_275382480.jpg</t>
+          <t>images_png/laptop/275382480.png</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>images/laptop/product_275269577.jpg</t>
+          <t>images_png/laptop/275269577.png</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -39237,7 +39237,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>images/laptop/product_274643985.jpg</t>
+          <t>images_png/laptop/274643985.png</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -39331,7 +39331,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>images/laptop/product_274419342.jpg</t>
+          <t>images_png/laptop/274419342.png</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -39425,7 +39425,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>images/laptop/product_274378954.jpg</t>
+          <t>images_png/laptop/274378954.png</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -39519,7 +39519,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>images/laptop/product_273949286.jpg</t>
+          <t>images_png/laptop/273949286.png</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -39613,7 +39613,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>images/laptop/product_272828266.jpg</t>
+          <t>images_png/laptop/272828266.png</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -39707,7 +39707,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>images/laptop/product_248830867.jpg</t>
+          <t>images_png/laptop/248830867.png</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -39801,7 +39801,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>images/laptop/product_277912721.jpg</t>
+          <t>images_png/laptop/277912721.png</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -39895,7 +39895,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>images/laptop/product_247666447.jpg</t>
+          <t>images_png/laptop/247666447.png</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -39989,7 +39989,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>images/laptop/product_247656002.jpg</t>
+          <t>images_png/laptop/247656002.png</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -40083,7 +40083,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>images/laptop/product_225195616.jpg</t>
+          <t>images_png/laptop/225195616.png</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -40177,7 +40177,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>images/laptop/product_225195387.jpg</t>
+          <t>images_png/laptop/225195387.png</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -40271,7 +40271,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863390.jpg</t>
+          <t>images_png/laptop/214863390.png</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -40365,7 +40365,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>images/laptop/product_214863343.jpg</t>
+          <t>images_png/laptop/214863343.png</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -40459,7 +40459,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>images/tv/product_178058676.jpg</t>
+          <t>images_png/tv/178058676.png</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -40553,7 +40553,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>images/laptop/product_206840788.jpg</t>
+          <t>images_png/laptop/206840788.png</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -40647,7 +40647,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>images/laptop/product_206307542.jpg</t>
+          <t>images_png/laptop/206307542.png</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -40741,7 +40741,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>images/laptop/product_277991695.jpg</t>
+          <t>images_png/laptop/277991695.png</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -40835,7 +40835,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>images/laptop/product_189572223.jpg</t>
+          <t>images_png/laptop/189572223.png</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -40929,7 +40929,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>images/laptop/product_278078311.jpg</t>
+          <t>images_png/laptop/278078311.png</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -41023,7 +41023,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>images/laptop/product_278076593.jpg</t>
+          <t>images_png/laptop/278076593.png</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -41117,7 +41117,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>images/laptop/product_277912740.jpg</t>
+          <t>images_png/laptop/277912740.png</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -41211,7 +41211,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>images/laptop/product_198437064.jpg</t>
+          <t>images_png/laptop/198437064.png</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -41305,7 +41305,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>images/laptop/product_155974507.jpg</t>
+          <t>images_png/laptop/155974507.png</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -41399,7 +41399,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>images/tv/product_253498992.jpg</t>
+          <t>images_png/tv/253498992.png</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -41493,7 +41493,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>images/camera/product_180847849.jpg</t>
+          <t>images_png/camera/180847849.png</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -41587,7 +41587,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>images/laptop/product_278078278.jpg</t>
+          <t>images_png/laptop/278078278.png</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -41681,7 +41681,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>images/laptop/product_278078281.jpg</t>
+          <t>images_png/laptop/278078281.png</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -41775,7 +41775,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>images/laptop/product_278078286.jpg</t>
+          <t>images_png/laptop/278078286.png</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -41869,7 +41869,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>images/laptop/product_278078298.jpg</t>
+          <t>images_png/laptop/278078298.png</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -41963,7 +41963,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>images/laptop/product_278078317.jpg</t>
+          <t>images_png/laptop/278078317.png</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -42057,7 +42057,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>images/laptop/product_278226504.jpg</t>
+          <t>images_png/laptop/278226504.png</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -42151,7 +42151,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>images/laptop/product_278226869.jpg</t>
+          <t>images_png/laptop/278226869.png</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -42245,7 +42245,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>images/speaker/product_275855728.jpg</t>
+          <t>images_png/speaker/275855728.png</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -42339,7 +42339,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>images/speaker/product_276046012.jpg</t>
+          <t>images_png/speaker/276046012.png</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -42433,7 +42433,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>images/phone/product_277490201.jpg</t>
+          <t>images_png/phone/277490201.png</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -42527,7 +42527,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>images/camera/product_277827436.jpg</t>
+          <t>images_png/camera/277827436.png</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -42621,7 +42621,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>images/phone/product_277738691.jpg</t>
+          <t>images_png/phone/277738691.png</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -42715,7 +42715,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>images/phone/product_275338696.jpg</t>
+          <t>images_png/phone/275338696.png</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -42809,7 +42809,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>images/phone/product_276305472.jpg</t>
+          <t>images_png/phone/276305472.png</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -42903,7 +42903,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>images/camera/product_108747706.jpg</t>
+          <t>images_png/camera/108747706.png</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -42997,7 +42997,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>images/laptop/product_189572199.jpg</t>
+          <t>images_png/laptop/189572199.png</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -43091,7 +43091,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>images/phone/product_277039291.jpg</t>
+          <t>images_png/phone/277039291.png</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -43185,7 +43185,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>images/speaker/product_57523356.jpg</t>
+          <t>images_png/speaker/57523356.png</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -43279,7 +43279,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>images/camera/product_277534704.jpg</t>
+          <t>images_png/camera/277534704.png</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -43373,7 +43373,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>images/phone/product_276046675.jpg</t>
+          <t>images_png/phone/276046675.png</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -43467,7 +43467,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>images/camera/product_275773160.jpg</t>
+          <t>images_png/camera/275773160.png</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -43561,7 +43561,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>images/phone/product_277065642.jpg</t>
+          <t>images_png/phone/277065642.png</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -43655,7 +43655,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>images/laptop/product_277451016.jpg</t>
+          <t>images_png/laptop/277451016.png</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -43749,7 +43749,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>images/speaker/product_276582252.jpg</t>
+          <t>images_png/speaker/276582252.png</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -43843,7 +43843,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>images/speaker/product_275406083.jpg</t>
+          <t>images_png/speaker/275406083.png</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -43937,7 +43937,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>images/speaker/product_275262949.jpg</t>
+          <t>images_png/speaker/275262949.png</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -44031,7 +44031,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>images/phone/product_277311651.jpg</t>
+          <t>images_png/phone/277311651.png</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -44125,7 +44125,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>images/speaker/product_160946349.jpg</t>
+          <t>images_png/speaker/160946349.png</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -44219,7 +44219,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>images/phone/product_277811118.jpg</t>
+          <t>images_png/phone/277811118.png</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -44313,7 +44313,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>images/speaker/product_210138061.jpg</t>
+          <t>images_png/speaker/210138061.png</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -44407,7 +44407,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>images/laptop/product_278076611.jpg</t>
+          <t>images_png/laptop/278076611.png</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -44501,7 +44501,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>images/laptop/product_278076601.jpg</t>
+          <t>images_png/laptop/278076601.png</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -44595,7 +44595,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>images/speaker/product_241635069.jpg</t>
+          <t>images_png/speaker/241635069.png</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -44689,7 +44689,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>images/laptop/product_278071899.jpg</t>
+          <t>images_png/laptop/278071899.png</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -44783,7 +44783,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>images/laptop/product_160445997.jpg</t>
+          <t>images_png/laptop/160445997.png</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -44877,7 +44877,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>images/laptop/product_158583221.jpg</t>
+          <t>images_png/laptop/158583221.png</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -44971,7 +44971,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>images/laptop/product_158583026.jpg</t>
+          <t>images_png/laptop/158583026.png</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -45065,7 +45065,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>images/laptop/product_92621126.jpg</t>
+          <t>images_png/laptop/92621126.png</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -45159,7 +45159,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>images/tv/product_275247634.jpg</t>
+          <t>images_png/tv/275247634.png</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -45253,7 +45253,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>images/laptop/product_278454662.jpg</t>
+          <t>images_png/laptop/278454662.png</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -45347,7 +45347,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>images/laptop/product_278304793.jpg</t>
+          <t>images_png/laptop/278304793.png</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -45441,7 +45441,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>images/laptop/product_278304363.jpg</t>
+          <t>images_png/laptop/278304363.png</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -45535,7 +45535,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>images/laptop/product_278304303.jpg</t>
+          <t>images_png/laptop/278304303.png</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -45629,7 +45629,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>images/laptop/product_278227010.jpg</t>
+          <t>images_png/laptop/278227010.png</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -45723,7 +45723,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>images/laptop/product_278226626.jpg</t>
+          <t>images_png/laptop/278226626.png</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -45817,7 +45817,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>images/laptop/product_278078315.jpg</t>
+          <t>images_png/laptop/278078315.png</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -45911,7 +45911,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>images/laptop/product_278076596.jpg</t>
+          <t>images_png/laptop/278076596.png</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -46005,7 +46005,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>images/laptop/product_275852844.jpg</t>
+          <t>images_png/laptop/275852844.png</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -46099,7 +46099,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>images/laptop/product_275850187.jpg</t>
+          <t>images_png/laptop/275850187.png</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -46193,7 +46193,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>images/laptop/product_275516477.jpg</t>
+          <t>images_png/laptop/275516477.png</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -46287,7 +46287,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>images/tv/product_277971948.jpg</t>
+          <t>images_png/tv/277971948.png</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -46381,7 +46381,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>images/laptop/product_275381290.jpg</t>
+          <t>images_png/laptop/275381290.png</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -46475,7 +46475,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>images/laptop/product_274775419.jpg</t>
+          <t>images_png/laptop/274775419.png</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -46569,7 +46569,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>images/laptop/product_273634022.jpg</t>
+          <t>images_png/laptop/273634022.png</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -46663,7 +46663,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>images/laptop/product_273239856.jpg</t>
+          <t>images_png/laptop/273239856.png</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -46757,7 +46757,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>images/tv/product_277988926.jpg</t>
+          <t>images_png/tv/277988926.png</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -46851,7 +46851,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>images/laptop/product_271949876.jpg</t>
+          <t>images_png/laptop/271949876.png</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -46945,7 +46945,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>images/tv/product_277989480.jpg</t>
+          <t>images_png/tv/277989480.png</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -47039,7 +47039,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>images/laptop/product_247667322.jpg</t>
+          <t>images_png/laptop/247667322.png</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -47133,7 +47133,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>images/laptop/product_225940640.jpg</t>
+          <t>images_png/laptop/225940640.png</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -47227,7 +47227,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>images/tv/product_278077419.jpg</t>
+          <t>images_png/tv/278077419.png</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -47321,7 +47321,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>images/laptop/product_205305968.jpg</t>
+          <t>images_png/laptop/205305968.png</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -47415,7 +47415,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>images/laptop/product_205303070.jpg</t>
+          <t>images_png/laptop/205303070.png</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -47509,7 +47509,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>images/laptop/product_277912853.jpg</t>
+          <t>images_png/laptop/277912853.png</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
